--- a/condor_approach/Summary.xlsx
+++ b/condor_approach/Summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t xml:space="preserve">ntax</t>
   </si>
@@ -53,609 +53,657 @@
     <t xml:space="preserve">0.008 (0.001)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.134 (0.455)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938 (0.212)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.015)</t>
+    <t xml:space="preserve">1.147 (0.409)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.025 (0.285)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008 (0.014)</t>
   </si>
   <si>
     <t xml:space="preserve">0.001 (0.001)</t>
   </si>
   <si>
+    <t xml:space="preserve">0.005 (0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.066 (0.695)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.205 (0.271)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007 (0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.076 (0.038)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009 (0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.738 (0.492)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08 (0.338)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002 (0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003 (0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.031 (0.372)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.895 (1.414)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.046 (0.071)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.092 (0.039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008 (0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995 (0.302)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.723 (1.595)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052 (0.114)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012 (0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934 (0.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19 (0.369)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.021 (0.036)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.074 (0.016)</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.01 (0.002)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.591 (0.176)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.203 (0.336)</t>
+    <t xml:space="preserve">1.432 (0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.529 (0.562)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (0.049)</t>
   </si>
   <si>
     <t xml:space="preserve">0 (0)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.054 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849 (0.538)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.061 (0.411)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.024 (0.022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.031 (0.372)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.895 (1.414)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.046 (0.071)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.092 (0.039)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998 (0.388)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.061 (1.944)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.077 (0.138)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.015 (0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925 (0.177)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.243 (0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (0.043)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.071 (0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6 (0.528)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.401 (0.529)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.031 (0.048)</t>
+    <t xml:space="preserve">0.009 (0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.026 (0.707)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.403 (0.367)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.029 (0.045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.058 (0.021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008 (0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.264 (0.472)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.665 (0.614)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034 (0.039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007 (0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.071 (0.438)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.301 (0.272)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014 (0.019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.066 (0.028)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62 (0.106)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.341 (3.972)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2 (0.17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.013 (0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.109 (0.375)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.898 (3.207)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139 (0.239)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.066 (0.029)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011 (0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.175 (0.221)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.002 (0.068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004 (0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005 (0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507 (0.279)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.007 (0.107)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002 (0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.074 (0.038)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.669 (0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.001 (0.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.029 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009 (0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.466 (0.541)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913 (0.275)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.267 (0.513)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004 (0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.169 (0.858)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.025 (0.101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.023 (0.052)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.082 (0.036)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007 (0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.731 (0.515)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.093 (0.165)</t>
   </si>
   <si>
     <t xml:space="preserve">0.011 (0.01)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.078 (0.857)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.485 (0.402)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.037 (0.051)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.054 (0.024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.264 (0.472)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.665 (0.614)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.034 (0.039)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997 (0.469)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.328 (0.306)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.017 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.076 (0.021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589 (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.051 (1.393)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.082 (0.116)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014 (0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929 (0.257)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.535 (3.902)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189 (0.29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.057 (0.031)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.175 (0.221)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.002 (0.068)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004 (0.006)</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.006 (0.005)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.574 (0.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.025 (0.123)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058 (0.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.669 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.001 (0.022)</t>
+    <t xml:space="preserve">1.813 (0.112)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 (0.133)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178 (0.251)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.095 (0.016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008 (0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.464 (0.773)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.767 (0.985)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.027 (0.023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939 (1.577)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.946 (0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.075 (0.056)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011 (0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.304 (0.866)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.158 (1.556)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.767 (1.096)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.587 (0.471)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.038 (0.957)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145 (0.156)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.074 (0.039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.135 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (NA)</t>
   </si>
   <si>
     <t xml:space="preserve">NA (NA)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.01 (0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.585 (0.544)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927 (0.315)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.038 (0.046)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965 (0.839)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.057 (0.082)</t>
+    <t xml:space="preserve">0.003 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.258 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.021 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.599 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.015 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.038 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.084 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.127 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.384 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.755 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.706 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.444 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.099 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.065 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.306 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.022 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.821 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.235 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009 (0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993 (0.516)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975 (0.242)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.016 (0.025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.212 (0.732)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.509 (0.891)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.029 (0.037)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.075 (0.238)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.193 (0.209)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005 (0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.785 (0.498)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.047 (0.551)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.025 (0.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.074 (0.019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.025 (0.552)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.046 (0.552)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.057 (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.023 (0.253)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.798 (0.375)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.059 (0.059)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.075 (0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893 (0.258)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.001 (1.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.058 (0.064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.444 (0.548)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.257 (0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.015 (0.027)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.069 (0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.383 (0.368)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.881 (1.556)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.073 (0.123)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011 (0.007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.062 (0.392)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.265 (0.343)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (0.029)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (0.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.113 (0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.183 (0.214)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005 (0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.237 (0.401)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.368 (0.249)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.054 (0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.071 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788 (0.101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994 (0.014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009 (0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929 (0.383)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965 (0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008 (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.083 (0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.466 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012 (0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.044 (0.339)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986 (0.063)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.111 (0.402)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888 (0.313)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017 (0.028)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.693 (0.542)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.028 (0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.082 (0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.091 (0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.899 (0.113)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004 (0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.798 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.814 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.224 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.043 (NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.263 (0.401)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.377 (0.321)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.028 (0.046)</t>
   </si>
   <si>
     <t xml:space="preserve">0.092 (0.032)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.009 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.954 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.892 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.294 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.464 (0.773)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.767 (0.985)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.027 (0.023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005 (0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939 (1.577)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.946 (0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.075 (0.056)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012 (0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879 (0.213)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.479 (1.736)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.021 (1.189)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.884 (0.446)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.599 (0.029)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244 (0.17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.078 (0.066)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.135 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.021 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.599 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.015 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.038 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.084 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.127 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.384 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.755 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.706 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.444 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.099 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.065 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.306 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.145 (0.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976 (0.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019 (0.027)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.038 (0.788)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.704 (0.981)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.038 (0.04)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992 (0.209)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.249 (0.217)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006 (0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984 (0.259)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.808 (0.155)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.023 (0.024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.079 (0.017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01 (0.615)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.058 (0.617)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.068 (0.095)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.101 (0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.847 (0.403)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.051 (0.045)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.076 (0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898 (0.288)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.663 (0.633)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.035 (0.037)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.482 (0.664)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.251 (0.478)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019 (0.032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.072 (0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.368 (0.423)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.106 (1.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.091 (0.134)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012 (0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.184 (0.326)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.327 (0.362)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.025 (0.032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.066 (0.023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.192 (0.501)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.187 (0.261)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006 (0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.237 (0.401)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.368 (0.249)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.054 (0.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.071 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788 (0.101)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994 (0.014)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929 (0.383)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965 (0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.083 (0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.466 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.044 (0.339)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986 (0.063)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.016 (0.518)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799 (0.385)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.693 (0.542)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.028 (0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.082 (0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.091 (0.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.899 (0.113)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.798 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.814 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.224 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.043 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.263 (0.401)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.377 (0.321)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.028 (0.046)</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.965 (0.482)</t>
   </si>
   <si>
@@ -690,9 +738,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.015 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001 (NA)</t>
   </si>
   <si>
     <t xml:space="preserve">0.077 (NA)</t>
@@ -1193,31 +1238,31 @@
         <v>0.01</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="n">
         <v>0.05</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1231,31 +1276,31 @@
         <v>0.01</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" t="n">
         <v>0.05</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
         <v>0.071</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1269,25 +1314,25 @@
         <v>0.01</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="n">
         <v>0.25</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1307,31 +1352,31 @@
         <v>0.01</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
         <v>0.25</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7" t="n">
         <v>0.071</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1345,31 +1390,31 @@
         <v>0.01</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1383,31 +1428,31 @@
         <v>0.01</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K9" t="n">
         <v>0.071</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1421,31 +1466,31 @@
         <v>0.01</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I10" t="n">
         <v>0.05</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1459,31 +1504,31 @@
         <v>0.01</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I11" t="n">
         <v>0.05</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K11" t="n">
         <v>0.071</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1497,31 +1542,31 @@
         <v>0.01</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I12" t="n">
         <v>0.25</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -1535,31 +1580,31 @@
         <v>0.01</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I13" t="n">
         <v>0.25</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K13" t="n">
         <v>0.071</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -1573,31 +1618,31 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -1611,31 +1656,31 @@
         <v>0.01</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K15" t="n">
         <v>0.071</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1649,31 +1694,31 @@
         <v>0.01</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I16" t="n">
         <v>0.05</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
@@ -1687,31 +1732,31 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I17" t="n">
         <v>0.05</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K17" t="n">
         <v>0.071</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -1725,31 +1770,31 @@
         <v>0.01</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I18" t="n">
         <v>0.25</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -1763,31 +1808,31 @@
         <v>0.01</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I19" t="n">
         <v>0.25</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K19" t="n">
         <v>0.071</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -1801,31 +1846,31 @@
         <v>0.01</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -1839,31 +1884,31 @@
         <v>0.01</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K21" t="n">
         <v>0.071</v>
       </c>
       <c r="L21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -1877,31 +1922,31 @@
         <v>0.01</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I22" t="n">
         <v>0.05</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -1915,19 +1960,19 @@
         <v>0.01</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I23" t="n">
         <v>0.05</v>
@@ -1939,7 +1984,7 @@
         <v>0.071</v>
       </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -1953,31 +1998,31 @@
         <v>0.01</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I24" t="n">
         <v>0.25</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1991,31 +2036,31 @@
         <v>0.01</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I25" t="n">
         <v>0.25</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K25" t="n">
         <v>0.071</v>
       </c>
       <c r="L25" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -2029,31 +2074,31 @@
         <v>0.01</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
@@ -2067,31 +2112,31 @@
         <v>0.01</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K27" t="n">
         <v>0.071</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -2105,31 +2150,31 @@
         <v>0.01</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I28" t="n">
         <v>0.05</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
@@ -2143,31 +2188,31 @@
         <v>0.01</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I29" t="n">
         <v>0.05</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K29" t="n">
         <v>0.071</v>
       </c>
       <c r="L29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -2181,31 +2226,31 @@
         <v>0.01</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I30" t="n">
         <v>0.25</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -2219,31 +2264,31 @@
         <v>0.01</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="I31" t="n">
         <v>0.25</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K31" t="n">
         <v>0.071</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32">
@@ -2257,31 +2302,31 @@
         <v>0.01</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33">
@@ -2295,31 +2340,31 @@
         <v>0.01</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K33" t="n">
         <v>0.071</v>
       </c>
       <c r="L33" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -2333,31 +2378,31 @@
         <v>0.01</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I34" t="n">
         <v>0.05</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -2371,31 +2416,31 @@
         <v>0.01</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I35" t="n">
         <v>0.05</v>
       </c>
       <c r="J35" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K35" t="n">
         <v>0.071</v>
       </c>
       <c r="L35" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
@@ -2409,31 +2454,31 @@
         <v>0.01</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I36" t="n">
         <v>0.25</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -2447,31 +2492,31 @@
         <v>0.01</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="I37" t="n">
         <v>0.25</v>
       </c>
       <c r="J37" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K37" t="n">
         <v>0.071</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38">
@@ -2485,31 +2530,31 @@
         <v>0.01</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -2523,31 +2568,31 @@
         <v>0.01</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K39" t="n">
         <v>0.071</v>
       </c>
       <c r="L39" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40">
@@ -2561,31 +2606,31 @@
         <v>0.01</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="I40" t="n">
         <v>0.05</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -2599,31 +2644,31 @@
         <v>0.01</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="I41" t="n">
         <v>0.05</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K41" t="n">
         <v>0.071</v>
       </c>
       <c r="L41" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42">
@@ -2643,25 +2688,25 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="I42" t="n">
         <v>0.25</v>
       </c>
       <c r="J42" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -2675,31 +2720,31 @@
         <v>0.01</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="I43" t="n">
         <v>0.25</v>
       </c>
       <c r="J43" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K43" t="n">
         <v>0.071</v>
       </c>
       <c r="L43" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44">
@@ -2713,31 +2758,31 @@
         <v>0.01</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -2751,31 +2796,31 @@
         <v>0.01</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K45" t="n">
         <v>0.071</v>
       </c>
       <c r="L45" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46">
@@ -2789,31 +2834,31 @@
         <v>0.01</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="I46" t="n">
         <v>0.05</v>
       </c>
       <c r="J46" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -2827,31 +2872,31 @@
         <v>0.01</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="I47" t="n">
         <v>0.05</v>
       </c>
       <c r="J47" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="K47" t="n">
         <v>0.071</v>
       </c>
       <c r="L47" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48">
@@ -2865,31 +2910,31 @@
         <v>0.01</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="I48" t="n">
         <v>0.25</v>
       </c>
       <c r="J48" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -2903,31 +2948,31 @@
         <v>0.01</v>
       </c>
       <c r="D49" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="I49" t="n">
         <v>0.25</v>
       </c>
       <c r="J49" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="K49" t="n">
         <v>0.071</v>
       </c>
       <c r="L49" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50">
@@ -2941,31 +2986,31 @@
         <v>0.01</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
@@ -2979,31 +3024,31 @@
         <v>0.01</v>
       </c>
       <c r="D51" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="K51" t="n">
         <v>0.071</v>
       </c>
       <c r="L51" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52">
@@ -3017,31 +3062,31 @@
         <v>0.01</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="I52" t="n">
         <v>0.05</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
@@ -3055,19 +3100,19 @@
         <v>0.01</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="I53" t="n">
         <v>0.05</v>
@@ -3079,7 +3124,7 @@
         <v>0.071</v>
       </c>
       <c r="L53" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54">
@@ -3093,31 +3138,31 @@
         <v>0.01</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I54" t="n">
         <v>0.25</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
@@ -3131,19 +3176,19 @@
         <v>0.01</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="I55" t="n">
         <v>0.25</v>
@@ -3155,7 +3200,7 @@
         <v>0.071</v>
       </c>
       <c r="L55" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56">
@@ -3169,31 +3214,31 @@
         <v>0.01</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
@@ -3207,31 +3252,31 @@
         <v>0.01</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K57" t="n">
         <v>0.071</v>
       </c>
       <c r="L57" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58">
@@ -3245,31 +3290,31 @@
         <v>0.01</v>
       </c>
       <c r="D58" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="I58" t="n">
         <v>0.05</v>
       </c>
       <c r="J58" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
@@ -3283,31 +3328,31 @@
         <v>0.01</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="I59" t="n">
         <v>0.05</v>
       </c>
       <c r="J59" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="K59" t="n">
         <v>0.071</v>
       </c>
       <c r="L59" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60">
@@ -3321,31 +3366,31 @@
         <v>0.01</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="I60" t="n">
         <v>0.25</v>
       </c>
       <c r="J60" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
@@ -3359,31 +3404,31 @@
         <v>0.01</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="I61" t="n">
         <v>0.25</v>
       </c>
       <c r="J61" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="K61" t="n">
         <v>0.071</v>
       </c>
       <c r="L61" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62">
@@ -3397,31 +3442,31 @@
         <v>0.01</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
@@ -3435,31 +3480,31 @@
         <v>0.01</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="K63" t="n">
         <v>0.071</v>
       </c>
       <c r="L63" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64">
@@ -3473,31 +3518,31 @@
         <v>0.01</v>
       </c>
       <c r="D64" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I64" t="n">
         <v>0.05</v>
       </c>
       <c r="J64" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65">
@@ -3511,31 +3556,31 @@
         <v>0.01</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="I65" t="n">
         <v>0.05</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K65" t="n">
         <v>0.071</v>
       </c>
       <c r="L65" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66">
@@ -3549,31 +3594,31 @@
         <v>0.01</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I66" t="n">
         <v>0.25</v>
       </c>
       <c r="J66" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67">
@@ -3587,31 +3632,31 @@
         <v>0.01</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I67" t="n">
         <v>0.25</v>
       </c>
       <c r="J67" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K67" t="n">
         <v>0.071</v>
       </c>
       <c r="L67" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
@@ -3625,31 +3670,31 @@
         <v>0.01</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69">
@@ -3663,31 +3708,31 @@
         <v>0.01</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K69" t="n">
         <v>0.071</v>
       </c>
       <c r="L69" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70">
@@ -3701,31 +3746,31 @@
         <v>0.01</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="I70" t="n">
         <v>0.05</v>
       </c>
       <c r="J70" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
@@ -3739,31 +3784,31 @@
         <v>0.01</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I71" t="n">
         <v>0.05</v>
       </c>
       <c r="J71" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K71" t="n">
         <v>0.071</v>
       </c>
       <c r="L71" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
@@ -3777,31 +3822,31 @@
         <v>0.01</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I72" t="n">
         <v>0.25</v>
       </c>
       <c r="J72" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
@@ -3815,31 +3860,31 @@
         <v>0.01</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I73" t="n">
         <v>0.25</v>
       </c>
       <c r="J73" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K73" t="n">
         <v>0.071</v>
       </c>
       <c r="L73" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/condor_approach/Summary.xlsx
+++ b/condor_approach/Summary.xlsx
@@ -1,775 +1,783 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bomeara/Documents/MyDocuments/GitClones/BMhyb_paper_analyses/condor_approach/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89ECBF8F-B36D-5044-A711-FA07A304AC1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="13120" windowHeight="6100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
-  <si>
-    <t xml:space="preserve">ntax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhybridizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma.sq_true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma.sq_est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mu_true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mu_est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bt_true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bt_est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vh_true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vh_est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE_true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE_est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.147 (0.409)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.025 (0.285)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.014)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005 (0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.066 (0.695)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.205 (0.271)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007 (0.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.076 (0.038)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.738 (0.492)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08 (0.338)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.031 (0.372)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.895 (1.414)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.046 (0.071)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.092 (0.039)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995 (0.302)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.723 (1.595)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052 (0.114)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012 (0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934 (0.24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19 (0.369)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.021 (0.036)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.074 (0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.432 (0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.529 (0.562)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (0.049)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.026 (0.707)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.403 (0.367)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.029 (0.045)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058 (0.021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.264 (0.472)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.665 (0.614)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.034 (0.039)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.071 (0.438)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.301 (0.272)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014 (0.019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.066 (0.028)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62 (0.106)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.341 (3.972)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2 (0.17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.013 (0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.109 (0.375)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.898 (3.207)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139 (0.239)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.066 (0.029)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.175 (0.221)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.002 (0.068)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004 (0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005 (0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507 (0.279)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.007 (0.107)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.074 (0.038)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.669 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.001 (0.022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.029 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.466 (0.541)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913 (0.275)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.267 (0.513)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.169 (0.858)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.025 (0.101)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.023 (0.052)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.082 (0.036)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731 (0.515)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.093 (0.165)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011 (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006 (0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.813 (0.112)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 (0.133)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178 (0.251)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.095 (0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.464 (0.773)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.767 (0.985)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.027 (0.023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939 (1.577)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.946 (0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.075 (0.056)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.304 (0.866)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.158 (1.556)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.767 (1.096)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.587 (0.471)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.038 (0.957)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145 (0.156)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.074 (0.039)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.135 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.021 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.599 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.015 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.038 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.084 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.127 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.384 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.755 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.706 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.444 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.099 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.065 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.306 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.022 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.821 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.235 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993 (0.516)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975 (0.242)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.016 (0.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.212 (0.732)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.509 (0.891)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.029 (0.037)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.075 (0.238)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.193 (0.209)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005 (0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.785 (0.498)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.047 (0.551)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.025 (0.022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.074 (0.019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.025 (0.552)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.046 (0.552)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.057 (0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.023 (0.253)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.798 (0.375)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.059 (0.059)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.075 (0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893 (0.258)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.001 (1.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058 (0.064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.444 (0.548)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.257 (0.39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.015 (0.027)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.069 (0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.383 (0.368)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.881 (1.556)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.073 (0.123)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011 (0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.062 (0.392)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.265 (0.343)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (0.029)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (0.022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.113 (0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.183 (0.214)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005 (0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.237 (0.401)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.368 (0.249)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.054 (0.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.071 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788 (0.101)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994 (0.014)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929 (0.383)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965 (0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.083 (0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.466 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012 (0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.044 (0.339)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986 (0.063)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.111 (0.402)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888 (0.313)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.017 (0.028)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.693 (0.542)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.028 (0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.082 (0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.091 (0.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.899 (0.113)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004 (0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.798 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.814 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.224 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.043 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.263 (0.401)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.377 (0.321)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.028 (0.046)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.092 (0.032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965 (0.482)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6 (0.318)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485 (0.569)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 (0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.674 (0.064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.371 (0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193 (0.037)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.074 (0.012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.991 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.015 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.077 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.028 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.069 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.977 (NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019 (NA)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="250">
+  <si>
+    <t>ntax</t>
+  </si>
+  <si>
+    <t>nhybridizations</t>
+  </si>
+  <si>
+    <t>sigma.sq_true</t>
+  </si>
+  <si>
+    <t>sigma.sq_est</t>
+  </si>
+  <si>
+    <t>mu_true</t>
+  </si>
+  <si>
+    <t>mu_est</t>
+  </si>
+  <si>
+    <t>bt_true</t>
+  </si>
+  <si>
+    <t>bt_est</t>
+  </si>
+  <si>
+    <t>vh_true</t>
+  </si>
+  <si>
+    <t>vh_est</t>
+  </si>
+  <si>
+    <t>SE_true</t>
+  </si>
+  <si>
+    <t>SE_est</t>
+  </si>
+  <si>
+    <t>0.008 (0.001)</t>
+  </si>
+  <si>
+    <t>1.147 (0.409)</t>
+  </si>
+  <si>
+    <t>1.025 (0.285)</t>
+  </si>
+  <si>
+    <t>0.008 (0.014)</t>
+  </si>
+  <si>
+    <t>0.001 (0.001)</t>
+  </si>
+  <si>
+    <t>0.005 (0.006)</t>
+  </si>
+  <si>
+    <t>1.066 (0.695)</t>
+  </si>
+  <si>
+    <t>1.205 (0.271)</t>
+  </si>
+  <si>
+    <t>0.007 (0.013)</t>
+  </si>
+  <si>
+    <t>0.076 (0.038)</t>
+  </si>
+  <si>
+    <t>0.009 (0.002)</t>
+  </si>
+  <si>
+    <t>0.738 (0.492)</t>
+  </si>
+  <si>
+    <t>1.08 (0.338)</t>
+  </si>
+  <si>
+    <t>0.019 (0.02)</t>
+  </si>
+  <si>
+    <t>0.002 (0.004)</t>
+  </si>
+  <si>
+    <t>0.003 (0.004)</t>
+  </si>
+  <si>
+    <t>1.031 (0.372)</t>
+  </si>
+  <si>
+    <t>1.895 (1.414)</t>
+  </si>
+  <si>
+    <t>0.046 (0.071)</t>
+  </si>
+  <si>
+    <t>0.092 (0.039)</t>
+  </si>
+  <si>
+    <t>0.008 (0.004)</t>
+  </si>
+  <si>
+    <t>0.995 (0.302)</t>
+  </si>
+  <si>
+    <t>1.723 (1.595)</t>
+  </si>
+  <si>
+    <t>0.052 (0.114)</t>
+  </si>
+  <si>
+    <t>0.012 (0.006)</t>
+  </si>
+  <si>
+    <t>0.934 (0.24)</t>
+  </si>
+  <si>
+    <t>1.19 (0.369)</t>
+  </si>
+  <si>
+    <t>0.021 (0.036)</t>
+  </si>
+  <si>
+    <t>0.074 (0.016)</t>
+  </si>
+  <si>
+    <t>0.01 (0.002)</t>
+  </si>
+  <si>
+    <t>1.432 (0.56)</t>
+  </si>
+  <si>
+    <t>1.529 (0.562)</t>
+  </si>
+  <si>
+    <t>0.04 (0.049)</t>
+  </si>
+  <si>
+    <t>0 (0)</t>
+  </si>
+  <si>
+    <t>0.009 (0.009)</t>
+  </si>
+  <si>
+    <t>1.026 (0.707)</t>
+  </si>
+  <si>
+    <t>1.403 (0.367)</t>
+  </si>
+  <si>
+    <t>0.029 (0.045)</t>
+  </si>
+  <si>
+    <t>0.058 (0.021)</t>
+  </si>
+  <si>
+    <t>0.008 (0.003)</t>
+  </si>
+  <si>
+    <t>1.264 (0.472)</t>
+  </si>
+  <si>
+    <t>1.665 (0.614)</t>
+  </si>
+  <si>
+    <t>0.034 (0.039)</t>
+  </si>
+  <si>
+    <t>0 (0.001)</t>
+  </si>
+  <si>
+    <t>0.007 (0.004)</t>
+  </si>
+  <si>
+    <t>1.071 (0.438)</t>
+  </si>
+  <si>
+    <t>1.301 (0.272)</t>
+  </si>
+  <si>
+    <t>0.014 (0.019)</t>
+  </si>
+  <si>
+    <t>0.066 (0.028)</t>
+  </si>
+  <si>
+    <t>0.62 (0.106)</t>
+  </si>
+  <si>
+    <t>4.341 (3.972)</t>
+  </si>
+  <si>
+    <t>0.2 (0.17)</t>
+  </si>
+  <si>
+    <t>0.013 (0.009)</t>
+  </si>
+  <si>
+    <t>1.109 (0.375)</t>
+  </si>
+  <si>
+    <t>2.898 (3.207)</t>
+  </si>
+  <si>
+    <t>0.139 (0.239)</t>
+  </si>
+  <si>
+    <t>0.066 (0.029)</t>
+  </si>
+  <si>
+    <t>0.011 (0.002)</t>
+  </si>
+  <si>
+    <t>1.175 (0.221)</t>
+  </si>
+  <si>
+    <t>1.002 (0.068)</t>
+  </si>
+  <si>
+    <t>0.004 (0.006)</t>
+  </si>
+  <si>
+    <t>0.005 (0.005)</t>
+  </si>
+  <si>
+    <t>0.507 (0.279)</t>
+  </si>
+  <si>
+    <t>1.007 (0.107)</t>
+  </si>
+  <si>
+    <t>0.002 (0.002)</t>
+  </si>
+  <si>
+    <t>0.074 (0.038)</t>
+  </si>
+  <si>
+    <t>1.669 (0.001)</t>
+  </si>
+  <si>
+    <t>1.001 (0.022)</t>
+  </si>
+  <si>
+    <t>0.007 (NA)</t>
+  </si>
+  <si>
+    <t>1.029 (NA)</t>
+  </si>
+  <si>
+    <t>0.997 (NA)</t>
+  </si>
+  <si>
+    <t>0.001 (NA)</t>
+  </si>
+  <si>
+    <t>0.118 (NA)</t>
+  </si>
+  <si>
+    <t>0.009 (0.004)</t>
+  </si>
+  <si>
+    <t>1.466 (0.541)</t>
+  </si>
+  <si>
+    <t>0.913 (0.275)</t>
+  </si>
+  <si>
+    <t>0.267 (0.513)</t>
+  </si>
+  <si>
+    <t>0.004 (0.004)</t>
+  </si>
+  <si>
+    <t>1.169 (0.858)</t>
+  </si>
+  <si>
+    <t>1.025 (0.101)</t>
+  </si>
+  <si>
+    <t>0.023 (0.052)</t>
+  </si>
+  <si>
+    <t>0.082 (0.036)</t>
+  </si>
+  <si>
+    <t>0.007 (0.002)</t>
+  </si>
+  <si>
+    <t>0.731 (0.515)</t>
+  </si>
+  <si>
+    <t>2.093 (0.165)</t>
+  </si>
+  <si>
+    <t>0.011 (0.01)</t>
+  </si>
+  <si>
+    <t>0.006 (0.005)</t>
+  </si>
+  <si>
+    <t>1.813 (0.112)</t>
+  </si>
+  <si>
+    <t>1.2 (0.133)</t>
+  </si>
+  <si>
+    <t>0.178 (0.251)</t>
+  </si>
+  <si>
+    <t>0.095 (0.016)</t>
+  </si>
+  <si>
+    <t>0.008 (0.002)</t>
+  </si>
+  <si>
+    <t>1.464 (0.773)</t>
+  </si>
+  <si>
+    <t>1.767 (0.985)</t>
+  </si>
+  <si>
+    <t>0.027 (0.023)</t>
+  </si>
+  <si>
+    <t>0.939 (1.577)</t>
+  </si>
+  <si>
+    <t>1.946 (0.66)</t>
+  </si>
+  <si>
+    <t>0.075 (0.056)</t>
+  </si>
+  <si>
+    <t>0.011 (0.004)</t>
+  </si>
+  <si>
+    <t>1.304 (0.866)</t>
+  </si>
+  <si>
+    <t>2.158 (1.556)</t>
+  </si>
+  <si>
+    <t>0.767 (1.096)</t>
+  </si>
+  <si>
+    <t>0.01 (0.006)</t>
+  </si>
+  <si>
+    <t>1.587 (0.471)</t>
+  </si>
+  <si>
+    <t>2.038 (0.957)</t>
+  </si>
+  <si>
+    <t>0.145 (0.156)</t>
+  </si>
+  <si>
+    <t>0.074 (0.039)</t>
+  </si>
+  <si>
+    <t>0.011 (NA)</t>
+  </si>
+  <si>
+    <t>1.135 (NA)</t>
+  </si>
+  <si>
+    <t>0.993 (NA)</t>
+  </si>
+  <si>
+    <t>0 (NA)</t>
+  </si>
+  <si>
+    <t>NA (NA)</t>
+  </si>
+  <si>
+    <t>0.003 (NA)</t>
+  </si>
+  <si>
+    <t>0.522 (NA)</t>
+  </si>
+  <si>
+    <t>0.968 (NA)</t>
+  </si>
+  <si>
+    <t>0.258 (NA)</t>
+  </si>
+  <si>
+    <t>0.021 (NA)</t>
+  </si>
+  <si>
+    <t>2.599 (NA)</t>
+  </si>
+  <si>
+    <t>0.751 (NA)</t>
+  </si>
+  <si>
+    <t>0.015 (NA)</t>
+  </si>
+  <si>
+    <t>0.038 (NA)</t>
+  </si>
+  <si>
+    <t>0.084 (NA)</t>
+  </si>
+  <si>
+    <t>2.127 (NA)</t>
+  </si>
+  <si>
+    <t>0.004 (NA)</t>
+  </si>
+  <si>
+    <t>0.009 (NA)</t>
+  </si>
+  <si>
+    <t>1.384 (NA)</t>
+  </si>
+  <si>
+    <t>1.755 (NA)</t>
+  </si>
+  <si>
+    <t>0.006 (NA)</t>
+  </si>
+  <si>
+    <t>0.706 (NA)</t>
+  </si>
+  <si>
+    <t>1.444 (NA)</t>
+  </si>
+  <si>
+    <t>0.099 (NA)</t>
+  </si>
+  <si>
+    <t>0.065 (NA)</t>
+  </si>
+  <si>
+    <t>0.01 (NA)</t>
+  </si>
+  <si>
+    <t>0.91 (NA)</t>
+  </si>
+  <si>
+    <t>2.306 (NA)</t>
+  </si>
+  <si>
+    <t>0.022 (NA)</t>
+  </si>
+  <si>
+    <t>2.821 (NA)</t>
+  </si>
+  <si>
+    <t>2.235 (NA)</t>
+  </si>
+  <si>
+    <t>0.07 (NA)</t>
+  </si>
+  <si>
+    <t>0.009 (0.001)</t>
+  </si>
+  <si>
+    <t>0.993 (0.516)</t>
+  </si>
+  <si>
+    <t>0.975 (0.242)</t>
+  </si>
+  <si>
+    <t>0.016 (0.025)</t>
+  </si>
+  <si>
+    <t>1.212 (0.732)</t>
+  </si>
+  <si>
+    <t>1.509 (0.891)</t>
+  </si>
+  <si>
+    <t>0.029 (0.037)</t>
+  </si>
+  <si>
+    <t>0.06 (0.004)</t>
+  </si>
+  <si>
+    <t>1.075 (0.238)</t>
+  </si>
+  <si>
+    <t>1.193 (0.209)</t>
+  </si>
+  <si>
+    <t>0.005 (0.008)</t>
+  </si>
+  <si>
+    <t>0.785 (0.498)</t>
+  </si>
+  <si>
+    <t>1.047 (0.551)</t>
+  </si>
+  <si>
+    <t>0.025 (0.022)</t>
+  </si>
+  <si>
+    <t>0.074 (0.019)</t>
+  </si>
+  <si>
+    <t>1.025 (0.552)</t>
+  </si>
+  <si>
+    <t>1.046 (0.552)</t>
+  </si>
+  <si>
+    <t>0.057 (0.09)</t>
+  </si>
+  <si>
+    <t>1.023 (0.253)</t>
+  </si>
+  <si>
+    <t>0.798 (0.375)</t>
+  </si>
+  <si>
+    <t>0.059 (0.059)</t>
+  </si>
+  <si>
+    <t>0.075 (0.011)</t>
+  </si>
+  <si>
+    <t>0.01 (0.001)</t>
+  </si>
+  <si>
+    <t>0.893 (0.258)</t>
+  </si>
+  <si>
+    <t>2.001 (1.004)</t>
+  </si>
+  <si>
+    <t>0.058 (0.064)</t>
+  </si>
+  <si>
+    <t>1.444 (0.548)</t>
+  </si>
+  <si>
+    <t>1.257 (0.39)</t>
+  </si>
+  <si>
+    <t>0.015 (0.027)</t>
+  </si>
+  <si>
+    <t>0.069 (0.008)</t>
+  </si>
+  <si>
+    <t>1.383 (0.368)</t>
+  </si>
+  <si>
+    <t>1.881 (1.556)</t>
+  </si>
+  <si>
+    <t>0.073 (0.123)</t>
+  </si>
+  <si>
+    <t>0.011 (0.007)</t>
+  </si>
+  <si>
+    <t>1.062 (0.392)</t>
+  </si>
+  <si>
+    <t>1.265 (0.343)</t>
+  </si>
+  <si>
+    <t>0.02 (0.029)</t>
+  </si>
+  <si>
+    <t>0.07 (0.022)</t>
+  </si>
+  <si>
+    <t>1.113 (0.46)</t>
+  </si>
+  <si>
+    <t>1.183 (0.214)</t>
+  </si>
+  <si>
+    <t>0.005 (0.009)</t>
+  </si>
+  <si>
+    <t>1.237 (0.401)</t>
+  </si>
+  <si>
+    <t>1.368 (0.249)</t>
+  </si>
+  <si>
+    <t>0.054 (0.05)</t>
+  </si>
+  <si>
+    <t>0.071 (0.02)</t>
+  </si>
+  <si>
+    <t>0.008 (0)</t>
+  </si>
+  <si>
+    <t>0.788 (0.101)</t>
+  </si>
+  <si>
+    <t>0.994 (0.014)</t>
+  </si>
+  <si>
+    <t>0.009 (0.003)</t>
+  </si>
+  <si>
+    <t>0.929 (0.383)</t>
+  </si>
+  <si>
+    <t>0.965 (0.07)</t>
+  </si>
+  <si>
+    <t>0.008 (0.01)</t>
+  </si>
+  <si>
+    <t>0.083 (0.011)</t>
+  </si>
+  <si>
+    <t>0.84 (NA)</t>
+  </si>
+  <si>
+    <t>1.466 (NA)</t>
+  </si>
+  <si>
+    <t>0.012 (0.003)</t>
+  </si>
+  <si>
+    <t>1.044 (0.339)</t>
+  </si>
+  <si>
+    <t>0.986 (0.063)</t>
+  </si>
+  <si>
+    <t>1.111 (0.402)</t>
+  </si>
+  <si>
+    <t>0.888 (0.313)</t>
+  </si>
+  <si>
+    <t>0.017 (0.028)</t>
+  </si>
+  <si>
+    <t>1.693 (0.542)</t>
+  </si>
+  <si>
+    <t>1.028 (0.005)</t>
+  </si>
+  <si>
+    <t>0.082 (0.003)</t>
+  </si>
+  <si>
+    <t>0.01 (0)</t>
+  </si>
+  <si>
+    <t>1.091 (0.013)</t>
+  </si>
+  <si>
+    <t>1.899 (0.113)</t>
+  </si>
+  <si>
+    <t>0.004 (0.002)</t>
+  </si>
+  <si>
+    <t>0.005 (NA)</t>
+  </si>
+  <si>
+    <t>0.798 (NA)</t>
+  </si>
+  <si>
+    <t>2.814 (NA)</t>
+  </si>
+  <si>
+    <t>0.1 (NA)</t>
+  </si>
+  <si>
+    <t>0.008 (NA)</t>
+  </si>
+  <si>
+    <t>1.224 (NA)</t>
+  </si>
+  <si>
+    <t>2.043 (NA)</t>
+  </si>
+  <si>
+    <t>1.263 (0.401)</t>
+  </si>
+  <si>
+    <t>1.377 (0.321)</t>
+  </si>
+  <si>
+    <t>0.028 (0.046)</t>
+  </si>
+  <si>
+    <t>0.092 (0.032)</t>
+  </si>
+  <si>
+    <t>0.965 (0.482)</t>
+  </si>
+  <si>
+    <t>1.6 (0.318)</t>
+  </si>
+  <si>
+    <t>0.485 (0.569)</t>
+  </si>
+  <si>
+    <t>0.009 (0.006)</t>
+  </si>
+  <si>
+    <t>1.674 (0.064)</t>
+  </si>
+  <si>
+    <t>1.371 (0.16)</t>
+  </si>
+  <si>
+    <t>0.193 (0.037)</t>
+  </si>
+  <si>
+    <t>0.074 (0.012)</t>
+  </si>
+  <si>
+    <t>0.938 (NA)</t>
+  </si>
+  <si>
+    <t>0.991 (NA)</t>
+  </si>
+  <si>
+    <t>1.2 (NA)</t>
+  </si>
+  <si>
+    <t>1.015 (NA)</t>
+  </si>
+  <si>
+    <t>0.077 (NA)</t>
+  </si>
+  <si>
+    <t>1.68 (NA)</t>
+  </si>
+  <si>
+    <t>1.028 (NA)</t>
+  </si>
+  <si>
+    <t>0.069 (NA)</t>
+  </si>
+  <si>
+    <t>0.012 (NA)</t>
+  </si>
+  <si>
+    <t>0.809 (NA)</t>
+  </si>
+  <si>
+    <t>1.977 (NA)</t>
+  </si>
+  <si>
+    <t>0.019 (NA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -798,34 +806,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L73" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="12">
-    <tableColumn id="1" name="ntax"/>
-    <tableColumn id="2" name="nhybridizations"/>
-    <tableColumn id="3" name="sigma.sq_true"/>
-    <tableColumn id="4" name="sigma.sq_est"/>
-    <tableColumn id="5" name="mu_true"/>
-    <tableColumn id="6" name="mu_est"/>
-    <tableColumn id="7" name="bt_true"/>
-    <tableColumn id="8" name="bt_est"/>
-    <tableColumn id="9" name="vh_true"/>
-    <tableColumn id="10" name="vh_est"/>
-    <tableColumn id="11" name="SE_true"/>
-    <tableColumn id="12" name="SE_est"/>
-  </tableColumns>
-  <tableStyleInfo name="none" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1106,14 +1104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,2737 +1149,2737 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>30</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.01</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.01</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.071</v>
+      <c r="K3" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>30</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.01</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="1">
         <v>0.05</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>30</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.01</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="1">
         <v>0.05</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.071</v>
+      <c r="K5" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>30</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.01</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="1">
         <v>0.25</v>
       </c>
       <c r="J6" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>30</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.01</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="1">
         <v>0.25</v>
       </c>
       <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.071</v>
+      <c r="K7" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>30</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.01</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="1">
         <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>30</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.01</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.071</v>
+      <c r="K9" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>30</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.01</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="1">
         <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="1">
         <v>0.05</v>
       </c>
       <c r="J10" t="s">
         <v>54</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>30</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.01</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="1">
         <v>0.05</v>
       </c>
       <c r="J11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.071</v>
+      <c r="K11" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>30</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.01</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>62</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="1">
         <v>0.25</v>
       </c>
       <c r="J12" t="s">
         <v>63</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>30</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.01</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="1">
         <v>0.25</v>
       </c>
       <c r="J13" t="s">
         <v>67</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.071</v>
+      <c r="K13" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>30</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="1">
         <v>0.01</v>
       </c>
       <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>71</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>72</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="1">
         <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1">
         <v>0.01</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>75</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>76</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.071</v>
+      <c r="K15" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>30</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="1">
         <v>0.01</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>79</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="1">
         <v>0.05</v>
       </c>
       <c r="J16" t="s">
         <v>45</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>30</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="1">
         <v>0.01</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="1">
         <v>0.05</v>
       </c>
       <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.071</v>
+      <c r="K17" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>30</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="1">
         <v>0.01</v>
       </c>
       <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>86</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="1">
         <v>0.25</v>
       </c>
       <c r="J18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>30</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1">
         <v>0.01</v>
       </c>
       <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="1">
         <v>0.25</v>
       </c>
       <c r="J19" t="s">
         <v>92</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.071</v>
+      <c r="K19" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>30</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="1">
         <v>0.01</v>
       </c>
       <c r="D20" t="s">
         <v>94</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>95</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="1">
         <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>96</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>97</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>30</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="1">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="1">
         <v>0.01</v>
       </c>
       <c r="D21" t="s">
         <v>98</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>99</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="1">
         <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>100</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>101</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.071</v>
+      <c r="K21" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>30</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="1">
         <v>0.01</v>
       </c>
       <c r="D22" t="s">
         <v>103</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>104</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="1">
         <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>105</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="1">
         <v>0.05</v>
       </c>
       <c r="J22" t="s">
         <v>106</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>30</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="1">
         <v>0.01</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>107</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="1">
         <v>2</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="1">
         <v>0.05</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.071</v>
+      <c r="K23" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>30</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="1">
         <v>0.01</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>111</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="1">
         <v>2</v>
       </c>
       <c r="H24" t="s">
         <v>112</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="1">
         <v>0.25</v>
       </c>
       <c r="J24" t="s">
         <v>113</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>30</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="1">
         <v>5</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="1">
         <v>0.01</v>
       </c>
       <c r="D25" t="s">
         <v>114</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>115</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25" t="s">
         <v>116</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="1">
         <v>0.25</v>
       </c>
       <c r="J25" t="s">
         <v>117</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.071</v>
+      <c r="K25" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>30</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="1">
         <v>10</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="1">
         <v>0.01</v>
       </c>
       <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>120</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>121</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>122</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>30</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="1">
         <v>10</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="1">
         <v>0.01</v>
       </c>
       <c r="D27" t="s">
         <v>123</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>123</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>123</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>123</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.071</v>
+      <c r="K27" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>30</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="1">
         <v>10</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="1">
         <v>0.01</v>
       </c>
       <c r="D28" t="s">
         <v>123</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>123</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>123</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="1">
         <v>0.05</v>
       </c>
       <c r="J28" t="s">
         <v>123</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>30</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="1">
         <v>10</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="1">
         <v>0.01</v>
       </c>
       <c r="D29" t="s">
         <v>123</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>123</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>123</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="1">
         <v>0.05</v>
       </c>
       <c r="J29" t="s">
         <v>123</v>
       </c>
-      <c r="K29" t="n">
-        <v>0.071</v>
+      <c r="K29" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="1">
         <v>10</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="1">
         <v>0.01</v>
       </c>
       <c r="D30" t="s">
         <v>124</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>125</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>126</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="1">
         <v>0.25</v>
       </c>
       <c r="J30" t="s">
         <v>127</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="L30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="1">
         <v>10</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="1">
         <v>0.01</v>
       </c>
       <c r="D31" t="s">
         <v>128</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>129</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>130</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="1">
         <v>0.25</v>
       </c>
       <c r="J31" t="s">
         <v>131</v>
       </c>
-      <c r="K31" t="n">
-        <v>0.071</v>
+      <c r="K31" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L31" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="1">
         <v>10</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="1">
         <v>0.01</v>
       </c>
       <c r="D32" t="s">
         <v>124</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>133</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="1">
         <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>134</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>122</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="1">
         <v>0</v>
       </c>
       <c r="L32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="1">
         <v>10</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="1">
         <v>0.01</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>123</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="1">
         <v>2</v>
       </c>
       <c r="H33" t="s">
         <v>123</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>123</v>
       </c>
-      <c r="K33" t="n">
-        <v>0.071</v>
+      <c r="K33" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="1">
         <v>10</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="1">
         <v>0.01</v>
       </c>
       <c r="D34" t="s">
         <v>136</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>137</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="1">
         <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>138</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="1">
         <v>0.05</v>
       </c>
       <c r="J34" t="s">
         <v>122</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="1">
         <v>0</v>
       </c>
       <c r="L34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="1">
         <v>10</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="1">
         <v>0.01</v>
       </c>
       <c r="D35" t="s">
         <v>139</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="1">
         <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>141</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="1">
         <v>0.05</v>
       </c>
       <c r="J35" t="s">
         <v>142</v>
       </c>
-      <c r="K35" t="n">
-        <v>0.071</v>
+      <c r="K35" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="1">
         <v>10</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="1">
         <v>0.01</v>
       </c>
       <c r="D36" t="s">
         <v>144</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>145</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="1">
         <v>2</v>
       </c>
       <c r="H36" t="s">
         <v>146</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="1">
         <v>0.25</v>
       </c>
       <c r="J36" t="s">
         <v>80</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="1">
         <v>0</v>
       </c>
       <c r="L36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="1">
         <v>10</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="1">
         <v>0.01</v>
       </c>
       <c r="D37" t="s">
         <v>147</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>148</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="1">
         <v>2</v>
       </c>
       <c r="H37" t="s">
         <v>149</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" s="1">
         <v>0.25</v>
       </c>
       <c r="J37" t="s">
         <v>83</v>
       </c>
-      <c r="K37" t="n">
-        <v>0.071</v>
+      <c r="K37" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>100</v>
       </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
         <v>0.01</v>
       </c>
       <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>152</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>153</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38" s="1">
         <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>154</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" s="1">
         <v>0</v>
       </c>
       <c r="L38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>100</v>
       </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>0.01</v>
       </c>
       <c r="D39" t="s">
         <v>51</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>155</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>156</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" s="1">
         <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>157</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.071</v>
+      <c r="K39" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>100</v>
       </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
         <v>0.01</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>159</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="1">
         <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>160</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="1">
         <v>0.05</v>
       </c>
       <c r="J40" t="s">
         <v>161</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="1">
         <v>0</v>
       </c>
       <c r="L40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>100</v>
       </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
         <v>0.01</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>162</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="1">
         <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>163</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41" s="1">
         <v>0.05</v>
       </c>
       <c r="J41" t="s">
         <v>164</v>
       </c>
-      <c r="K41" t="n">
-        <v>0.071</v>
+      <c r="K41" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>100</v>
       </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
         <v>0.01</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>166</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="1">
         <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>167</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" s="1">
         <v>0.25</v>
       </c>
       <c r="J42" t="s">
         <v>168</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" s="1">
         <v>0</v>
       </c>
       <c r="L42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>100</v>
       </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
         <v>0.01</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>169</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="1">
         <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>170</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="1">
         <v>0.25</v>
       </c>
       <c r="J43" t="s">
         <v>171</v>
       </c>
-      <c r="K43" t="n">
-        <v>0.071</v>
+      <c r="K43" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L43" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>100</v>
       </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
         <v>0.01</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>174</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="1">
         <v>2</v>
       </c>
       <c r="H44" t="s">
         <v>175</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>176</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="L44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>100</v>
       </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
         <v>0.01</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>177</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="1">
         <v>2</v>
       </c>
       <c r="H45" t="s">
         <v>178</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45" s="1">
         <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>179</v>
       </c>
-      <c r="K45" t="n">
-        <v>0.071</v>
+      <c r="K45" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L45" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>100</v>
       </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
         <v>0.01</v>
       </c>
       <c r="D46" t="s">
         <v>151</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>181</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="1">
         <v>2</v>
       </c>
       <c r="H46" t="s">
         <v>182</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46" s="1">
         <v>0.05</v>
       </c>
       <c r="J46" t="s">
         <v>183</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>100</v>
       </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
         <v>0.01</v>
       </c>
       <c r="D47" t="s">
         <v>184</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>185</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="1">
         <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>186</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47" s="1">
         <v>0.05</v>
       </c>
       <c r="J47" t="s">
         <v>187</v>
       </c>
-      <c r="K47" t="n">
-        <v>0.071</v>
+      <c r="K47" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L47" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>100</v>
       </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
         <v>0.01</v>
       </c>
       <c r="D48" t="s">
         <v>41</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>189</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="1">
         <v>2</v>
       </c>
       <c r="H48" t="s">
         <v>190</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" s="1">
         <v>0.25</v>
       </c>
       <c r="J48" t="s">
         <v>191</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" s="1">
         <v>0</v>
       </c>
       <c r="L48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>100</v>
       </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
         <v>0.01</v>
       </c>
       <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>192</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="1">
         <v>2</v>
       </c>
       <c r="H49" t="s">
         <v>193</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49" s="1">
         <v>0.25</v>
       </c>
       <c r="J49" t="s">
         <v>194</v>
       </c>
-      <c r="K49" t="n">
-        <v>0.071</v>
+      <c r="K49" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L49" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="1">
         <v>5</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="1">
         <v>0.01</v>
       </c>
       <c r="D50" t="s">
         <v>196</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>197</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="1">
         <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>198</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50" s="1">
         <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>45</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50" s="1">
         <v>0</v>
       </c>
       <c r="L50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>100</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="1">
         <v>0.01</v>
       </c>
       <c r="D51" t="s">
         <v>199</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>200</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="1">
         <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>201</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51" s="1">
         <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>202</v>
       </c>
-      <c r="K51" t="n">
-        <v>0.071</v>
+      <c r="K51" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L51" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>100</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="1">
         <v>5</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="1">
         <v>0.01</v>
       </c>
       <c r="D52" t="s">
         <v>144</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>204</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="1">
         <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>205</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52" s="1">
         <v>0.05</v>
       </c>
       <c r="J52" t="s">
         <v>122</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52" s="1">
         <v>0</v>
       </c>
       <c r="L52" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>100</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="1">
         <v>5</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="1">
         <v>0.01</v>
       </c>
       <c r="D53" t="s">
         <v>206</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>207</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>208</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53" s="1">
         <v>0.05</v>
       </c>
       <c r="J53" t="s">
         <v>16</v>
       </c>
-      <c r="K53" t="n">
-        <v>0.071</v>
+      <c r="K53" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>100</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="1">
         <v>5</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="1">
         <v>0.01</v>
       </c>
       <c r="D54" t="s">
         <v>173</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="1">
         <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>209</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="1">
         <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>210</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54" s="1">
         <v>0.25</v>
       </c>
       <c r="J54" t="s">
         <v>211</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54" s="1">
         <v>0</v>
       </c>
       <c r="L54" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>100</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="1">
         <v>5</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="1">
         <v>0.01</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="1">
         <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>212</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="1">
         <v>1</v>
       </c>
       <c r="H55" t="s">
         <v>213</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55" s="1">
         <v>0.25</v>
       </c>
       <c r="J55" t="s">
         <v>16</v>
       </c>
-      <c r="K55" t="n">
-        <v>0.071</v>
+      <c r="K55" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L55" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>100</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="1">
         <v>5</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="1">
         <v>0.01</v>
       </c>
       <c r="D56" t="s">
         <v>215</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>216</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="1">
         <v>2</v>
       </c>
       <c r="H56" t="s">
         <v>217</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56" s="1">
         <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>218</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56" s="1">
         <v>0</v>
       </c>
       <c r="L56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>100</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="1">
         <v>5</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="1">
         <v>0.01</v>
       </c>
       <c r="D57" t="s">
         <v>219</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>220</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="1">
         <v>2</v>
       </c>
       <c r="H57" t="s">
         <v>221</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57" s="1">
         <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>135</v>
       </c>
-      <c r="K57" t="n">
-        <v>0.071</v>
+      <c r="K57" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L57" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>100</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="1">
         <v>5</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="1">
         <v>0.01</v>
       </c>
       <c r="D58" t="s">
         <v>223</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>224</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58" s="1">
         <v>2</v>
       </c>
       <c r="H58" t="s">
         <v>225</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58" s="1">
         <v>0.05</v>
       </c>
       <c r="J58" t="s">
         <v>139</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58" s="1">
         <v>0</v>
       </c>
       <c r="L58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>100</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="1">
         <v>5</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="1">
         <v>0.01</v>
       </c>
       <c r="D59" t="s">
         <v>173</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>226</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59" s="1">
         <v>2</v>
       </c>
       <c r="H59" t="s">
         <v>227</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59" s="1">
         <v>0.05</v>
       </c>
       <c r="J59" t="s">
         <v>228</v>
       </c>
-      <c r="K59" t="n">
-        <v>0.071</v>
+      <c r="K59" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>100</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="1">
         <v>5</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="1">
         <v>0.01</v>
       </c>
       <c r="D60" t="s">
         <v>173</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>230</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60" s="1">
         <v>2</v>
       </c>
       <c r="H60" t="s">
         <v>231</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60" s="1">
         <v>0.25</v>
       </c>
       <c r="J60" t="s">
         <v>232</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60" s="1">
         <v>0</v>
       </c>
       <c r="L60" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>100</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="1">
         <v>5</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="1">
         <v>0.01</v>
       </c>
       <c r="D61" t="s">
         <v>233</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>234</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61" s="1">
         <v>2</v>
       </c>
       <c r="H61" t="s">
         <v>235</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61" s="1">
         <v>0.25</v>
       </c>
       <c r="J61" t="s">
         <v>236</v>
       </c>
-      <c r="K61" t="n">
-        <v>0.071</v>
+      <c r="K61" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L61" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>100</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="1">
         <v>10</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="1">
         <v>0.01</v>
       </c>
       <c r="D62" t="s">
         <v>119</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>238</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62" s="1">
         <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>239</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>122</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62" s="1">
         <v>0</v>
       </c>
       <c r="L62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>100</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="1">
         <v>10</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="1">
         <v>0.01</v>
       </c>
       <c r="D63" t="s">
         <v>119</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>240</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63" s="1">
         <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>241</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63" s="1">
         <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>83</v>
       </c>
-      <c r="K63" t="n">
-        <v>0.071</v>
+      <c r="K63" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L63" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>100</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="1">
         <v>10</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="1">
         <v>0.01</v>
       </c>
       <c r="D64" t="s">
         <v>123</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" s="1">
         <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>123</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64" s="1">
         <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>123</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64" s="1">
         <v>0.05</v>
       </c>
       <c r="J64" t="s">
         <v>123</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64" s="1">
         <v>0</v>
       </c>
       <c r="L64" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>100</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="1">
         <v>10</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="1">
         <v>0.01</v>
       </c>
       <c r="D65" t="s">
         <v>136</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" s="1">
         <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>243</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65" s="1">
         <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>244</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65" s="1">
         <v>0.05</v>
       </c>
       <c r="J65" t="s">
         <v>122</v>
       </c>
-      <c r="K65" t="n">
-        <v>0.071</v>
+      <c r="K65" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L65" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>100</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="1">
         <v>10</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="1">
         <v>0.01</v>
       </c>
       <c r="D66" t="s">
         <v>123</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>123</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66" s="1">
         <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>123</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66" s="1">
         <v>0.25</v>
       </c>
       <c r="J66" t="s">
         <v>123</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66" s="1">
         <v>0</v>
       </c>
       <c r="L66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>100</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="1">
         <v>10</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="1">
         <v>0.01</v>
       </c>
       <c r="D67" t="s">
         <v>123</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>123</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67" s="1">
         <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>123</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67" s="1">
         <v>0.25</v>
       </c>
       <c r="J67" t="s">
         <v>123</v>
       </c>
-      <c r="K67" t="n">
-        <v>0.071</v>
+      <c r="K67" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L67" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>100</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="1">
         <v>10</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="1">
         <v>0.01</v>
       </c>
       <c r="D68" t="s">
         <v>123</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>123</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68" s="1">
         <v>2</v>
       </c>
       <c r="H68" t="s">
         <v>123</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68" s="1">
         <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>123</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68" s="1">
         <v>0</v>
       </c>
       <c r="L68" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>100</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="1">
         <v>10</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="1">
         <v>0.01</v>
       </c>
       <c r="D69" t="s">
         <v>123</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>123</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69" s="1">
         <v>2</v>
       </c>
       <c r="H69" t="s">
         <v>123</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69" s="1">
         <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>123</v>
       </c>
-      <c r="K69" t="n">
-        <v>0.071</v>
+      <c r="K69" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L69" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>100</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="1">
         <v>10</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="1">
         <v>0.01</v>
       </c>
       <c r="D70" t="s">
         <v>246</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70" s="1">
         <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>247</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70" s="1">
         <v>2</v>
       </c>
       <c r="H70" t="s">
         <v>248</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70" s="1">
         <v>0.05</v>
       </c>
       <c r="J70" t="s">
         <v>249</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70" s="1">
         <v>0</v>
       </c>
       <c r="L70" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>100</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="1">
         <v>10</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="1">
         <v>0.01</v>
       </c>
       <c r="D71" t="s">
         <v>123</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>123</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71" s="1">
         <v>2</v>
       </c>
       <c r="H71" t="s">
         <v>123</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71" s="1">
         <v>0.05</v>
       </c>
       <c r="J71" t="s">
         <v>123</v>
       </c>
-      <c r="K71" t="n">
-        <v>0.071</v>
+      <c r="K71" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L71" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>100</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="1">
         <v>10</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="1">
         <v>0.01</v>
       </c>
       <c r="D72" t="s">
         <v>123</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>123</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72" s="1">
         <v>2</v>
       </c>
       <c r="H72" t="s">
         <v>123</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72" s="1">
         <v>0.25</v>
       </c>
       <c r="J72" t="s">
         <v>123</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>100</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="1">
         <v>10</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="1">
         <v>0.01</v>
       </c>
       <c r="D73" t="s">
         <v>123</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>123</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73" s="1">
         <v>2</v>
       </c>
       <c r="H73" t="s">
         <v>123</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73" s="1">
         <v>0.25</v>
       </c>
       <c r="J73" t="s">
         <v>123</v>
       </c>
-      <c r="K73" t="n">
-        <v>0.071</v>
+      <c r="K73" s="1">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L73" t="s">
         <v>123</v>
@@ -3889,15 +3887,114 @@
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="A38:A73"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="C2:C73"/>
+    <mergeCell ref="K65"/>
+    <mergeCell ref="K66"/>
+    <mergeCell ref="K67"/>
+    <mergeCell ref="K68"/>
+    <mergeCell ref="K69"/>
+    <mergeCell ref="K70"/>
+    <mergeCell ref="K71"/>
+    <mergeCell ref="K72"/>
+    <mergeCell ref="K73"/>
+    <mergeCell ref="K56"/>
+    <mergeCell ref="K57"/>
+    <mergeCell ref="K58"/>
+    <mergeCell ref="K59"/>
+    <mergeCell ref="K60"/>
+    <mergeCell ref="K61"/>
+    <mergeCell ref="K62"/>
+    <mergeCell ref="K63"/>
+    <mergeCell ref="K64"/>
+    <mergeCell ref="K47"/>
+    <mergeCell ref="K48"/>
+    <mergeCell ref="K49"/>
+    <mergeCell ref="K50"/>
+    <mergeCell ref="K51"/>
+    <mergeCell ref="K52"/>
+    <mergeCell ref="K53"/>
+    <mergeCell ref="K54"/>
+    <mergeCell ref="K55"/>
+    <mergeCell ref="K38"/>
+    <mergeCell ref="K39"/>
+    <mergeCell ref="K40"/>
+    <mergeCell ref="K41"/>
+    <mergeCell ref="K42"/>
+    <mergeCell ref="K43"/>
+    <mergeCell ref="K44"/>
+    <mergeCell ref="K45"/>
+    <mergeCell ref="K46"/>
+    <mergeCell ref="K29"/>
+    <mergeCell ref="K30"/>
+    <mergeCell ref="K31"/>
+    <mergeCell ref="K32"/>
+    <mergeCell ref="K33"/>
+    <mergeCell ref="K34"/>
+    <mergeCell ref="K35"/>
+    <mergeCell ref="K36"/>
+    <mergeCell ref="K37"/>
+    <mergeCell ref="K20"/>
+    <mergeCell ref="K21"/>
+    <mergeCell ref="K22"/>
+    <mergeCell ref="K23"/>
+    <mergeCell ref="K24"/>
+    <mergeCell ref="K25"/>
+    <mergeCell ref="K26"/>
+    <mergeCell ref="K27"/>
+    <mergeCell ref="K28"/>
+    <mergeCell ref="K11"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="K14"/>
+    <mergeCell ref="K15"/>
+    <mergeCell ref="K16"/>
+    <mergeCell ref="K17"/>
+    <mergeCell ref="K18"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="K9"/>
+    <mergeCell ref="K10"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="E2:E73"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G13"/>
@@ -3911,119 +4008,17 @@
     <mergeCell ref="G56:G61"/>
     <mergeCell ref="G62:G67"/>
     <mergeCell ref="G68:G73"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="K2:K2"/>
-    <mergeCell ref="K3:K3"/>
-    <mergeCell ref="K4:K4"/>
-    <mergeCell ref="K5:K5"/>
-    <mergeCell ref="K6:K6"/>
-    <mergeCell ref="K7:K7"/>
-    <mergeCell ref="K8:K8"/>
-    <mergeCell ref="K9:K9"/>
-    <mergeCell ref="K10:K10"/>
-    <mergeCell ref="K11:K11"/>
-    <mergeCell ref="K12:K12"/>
-    <mergeCell ref="K13:K13"/>
-    <mergeCell ref="K14:K14"/>
-    <mergeCell ref="K15:K15"/>
-    <mergeCell ref="K16:K16"/>
-    <mergeCell ref="K17:K17"/>
-    <mergeCell ref="K18:K18"/>
-    <mergeCell ref="K19:K19"/>
-    <mergeCell ref="K20:K20"/>
-    <mergeCell ref="K21:K21"/>
-    <mergeCell ref="K22:K22"/>
-    <mergeCell ref="K23:K23"/>
-    <mergeCell ref="K24:K24"/>
-    <mergeCell ref="K25:K25"/>
-    <mergeCell ref="K26:K26"/>
-    <mergeCell ref="K27:K27"/>
-    <mergeCell ref="K28:K28"/>
-    <mergeCell ref="K29:K29"/>
-    <mergeCell ref="K30:K30"/>
-    <mergeCell ref="K31:K31"/>
-    <mergeCell ref="K32:K32"/>
-    <mergeCell ref="K33:K33"/>
-    <mergeCell ref="K34:K34"/>
-    <mergeCell ref="K35:K35"/>
-    <mergeCell ref="K36:K36"/>
-    <mergeCell ref="K37:K37"/>
-    <mergeCell ref="K38:K38"/>
-    <mergeCell ref="K39:K39"/>
-    <mergeCell ref="K40:K40"/>
-    <mergeCell ref="K41:K41"/>
-    <mergeCell ref="K42:K42"/>
-    <mergeCell ref="K43:K43"/>
-    <mergeCell ref="K44:K44"/>
-    <mergeCell ref="K45:K45"/>
-    <mergeCell ref="K46:K46"/>
-    <mergeCell ref="K47:K47"/>
-    <mergeCell ref="K48:K48"/>
-    <mergeCell ref="K49:K49"/>
-    <mergeCell ref="K50:K50"/>
-    <mergeCell ref="K51:K51"/>
-    <mergeCell ref="K52:K52"/>
-    <mergeCell ref="K53:K53"/>
-    <mergeCell ref="K54:K54"/>
-    <mergeCell ref="K55:K55"/>
-    <mergeCell ref="K56:K56"/>
-    <mergeCell ref="K57:K57"/>
-    <mergeCell ref="K58:K58"/>
-    <mergeCell ref="K59:K59"/>
-    <mergeCell ref="K60:K60"/>
-    <mergeCell ref="K61:K61"/>
-    <mergeCell ref="K62:K62"/>
-    <mergeCell ref="K63:K63"/>
-    <mergeCell ref="K64:K64"/>
-    <mergeCell ref="K65:K65"/>
-    <mergeCell ref="K66:K66"/>
-    <mergeCell ref="K67:K67"/>
-    <mergeCell ref="K68:K68"/>
-    <mergeCell ref="K69:K69"/>
-    <mergeCell ref="K70:K70"/>
-    <mergeCell ref="K71:K71"/>
-    <mergeCell ref="K72:K72"/>
-    <mergeCell ref="K73:K73"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="A38:A73"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="C2:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>